--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 30/DAX30_returns_compared_trimester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 30/DAX30_returns_compared_trimester.xlsx
@@ -501,13 +501,13 @@
         <v>0.04690428506837689</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02337831214616213</v>
+        <v>0.06370964304014348</v>
       </c>
       <c r="H2" t="n">
-        <v>-50.15740648838094</v>
+        <v>35.82904621031491</v>
       </c>
       <c r="I2" t="n">
-        <v>5.634237041386265</v>
+        <v>23.17688163100411</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.07240634976255141</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05379890253386646</v>
+        <v>0.05297817432827322</v>
       </c>
       <c r="H3" t="n">
-        <v>-25.69864009124338</v>
+        <v>-26.83214317251282</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05677872930236846</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05137647499816847</v>
+        <v>0.09149485677521683</v>
       </c>
       <c r="H4" t="n">
-        <v>-9.51457415580915</v>
+        <v>61.14283975601447</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.01431410888443309</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01506695766918242</v>
+        <v>-0.0102881073652037</v>
       </c>
       <c r="H5" t="n">
-        <v>5.259487620413939</v>
+        <v>-171.8738934310626</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.02406522563137596</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01858212632952245</v>
+        <v>-0.009995769369221577</v>
       </c>
       <c r="H6" t="n">
-        <v>-22.78432534081339</v>
+        <v>58.46384520829421</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.03313782199633989</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002755994729864375</v>
+        <v>-5.176973569878673e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>-108.3167648440165</v>
+        <v>99.84377447707787</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.03132415382667915</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04119503779982644</v>
+        <v>0.02641201464970367</v>
       </c>
       <c r="H8" t="n">
-        <v>31.51205305581197</v>
+        <v>-15.68163406473809</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.01634254468973803</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03617745134100332</v>
+        <v>0.06316367060243028</v>
       </c>
       <c r="H9" t="n">
-        <v>121.3697562272552</v>
+        <v>286.4983807698725</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1585987240758367</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1370211525605745</v>
+        <v>-0.1559437117293582</v>
       </c>
       <c r="H10" t="n">
-        <v>-13.60513562829452</v>
+        <v>1.674043950825832</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1624399880904878</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1230625167272054</v>
+        <v>-0.1576503649401009</v>
       </c>
       <c r="H11" t="n">
-        <v>-24.24124245893629</v>
+        <v>2.948549311465606</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.06057036026101323</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08079514267948688</v>
+        <v>-0.08279986121641078</v>
       </c>
       <c r="H12" t="n">
-        <v>33.39055988988653</v>
+        <v>-36.7002950941763</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.09595844735096801</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04641984554711592</v>
+        <v>-0.05946232698215295</v>
       </c>
       <c r="H13" t="n">
-        <v>-51.62505560627159</v>
+        <v>38.03325436824806</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0880758363513635</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05094554988189111</v>
+        <v>-0.06380794656107378</v>
       </c>
       <c r="H14" t="n">
-        <v>-42.15717727771265</v>
+        <v>27.5534026080401</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.09854107075769501</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08635466318032203</v>
+        <v>-0.08105774521388813</v>
       </c>
       <c r="H15" t="n">
-        <v>-12.36683088956728</v>
+        <v>17.74217126866527</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.3086795035919008</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3139711788222801</v>
+        <v>-0.2679695447514935</v>
       </c>
       <c r="H16" t="n">
-        <v>1.71429433078762</v>
+        <v>13.18842306233236</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.3125468234095096</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2930891505199401</v>
+        <v>-0.2895164919408114</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.225522524052467</v>
+        <v>7.36860199616333</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1425913561743559</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.177477826835097</v>
+        <v>-0.1412092880698574</v>
       </c>
       <c r="H18" t="n">
-        <v>24.46604871201527</v>
+        <v>0.9692509711518089</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1550685811404286</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2126002661236514</v>
+        <v>-0.2285810002872402</v>
       </c>
       <c r="H19" t="n">
-        <v>37.10080053619803</v>
+        <v>-47.40639180817647</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1418115268149177</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1144301575154854</v>
+        <v>0.1571574191453605</v>
       </c>
       <c r="H20" t="n">
-        <v>-19.30828185438587</v>
+        <v>10.82132932005672</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1848395652975698</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2624976313487386</v>
+        <v>0.2949144147236669</v>
       </c>
       <c r="H21" t="n">
-        <v>42.01376795392724</v>
+        <v>59.55156259369559</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1839959105938305</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1591556012572852</v>
+        <v>0.1525991063715137</v>
       </c>
       <c r="H22" t="n">
-        <v>-13.50046816604532</v>
+        <v>-17.06385980046317</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.167097082751942</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2419566716887218</v>
+        <v>0.192899511290034</v>
       </c>
       <c r="H23" t="n">
-        <v>44.80005737018758</v>
+        <v>15.44157929818325</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.06416166522379767</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08071233726606405</v>
+        <v>0.05721325778465872</v>
       </c>
       <c r="H24" t="n">
-        <v>25.79526573155043</v>
+        <v>-10.82953102121447</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.03288457073106435</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07583490128179715</v>
+        <v>0.03087743300851632</v>
       </c>
       <c r="H25" t="n">
-        <v>130.6093696706214</v>
+        <v>-6.103584988117214</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.05401082814340269</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0292378717504078</v>
+        <v>0.04084860190328831</v>
       </c>
       <c r="H26" t="n">
-        <v>-45.86664793811508</v>
+        <v>-24.36960641515754</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.06433468169381938</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06090279568031981</v>
+        <v>0.08159492790533784</v>
       </c>
       <c r="H27" t="n">
-        <v>-5.334426040735774</v>
+        <v>26.82883595144398</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.05928198100296411</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.07012655185233793</v>
+        <v>-0.07802197258784284</v>
       </c>
       <c r="H28" t="n">
-        <v>18.2931991574836</v>
+        <v>-31.61161497612862</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.05281150307367723</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.03674990748226261</v>
+        <v>-0.04261070276647713</v>
       </c>
       <c r="H29" t="n">
-        <v>-30.41306279241308</v>
+        <v>19.31548945495639</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.07699420258580157</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05669596453038235</v>
+        <v>0.03772928348196142</v>
       </c>
       <c r="H30" t="n">
-        <v>-26.36333304809419</v>
+        <v>-50.9972410716037</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06115431279408023</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07845471255405792</v>
+        <v>0.0713139198990457</v>
       </c>
       <c r="H31" t="n">
-        <v>28.28974600406659</v>
+        <v>16.61306724053145</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.07344886362917534</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06575332690062763</v>
+        <v>0.08320266802617203</v>
       </c>
       <c r="H32" t="n">
-        <v>-10.47740747549278</v>
+        <v>13.27972131228765</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1261993152982801</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09419156070720186</v>
+        <v>0.100253014537074</v>
       </c>
       <c r="H33" t="n">
-        <v>-25.36285915294063</v>
+        <v>-20.55977934577567</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02737189623751556</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02572536236285978</v>
+        <v>0.0523885207206753</v>
       </c>
       <c r="H34" t="n">
-        <v>-6.01541763993341</v>
+        <v>91.39529196692001</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.02703077430986488</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0204689715795956</v>
+        <v>0.03583376389433895</v>
       </c>
       <c r="H35" t="n">
-        <v>-24.27530434403631</v>
+        <v>32.56654612835644</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.03421515439615114</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02338566687478118</v>
+        <v>0.006070434086277208</v>
       </c>
       <c r="H36" t="n">
-        <v>-31.65114322146144</v>
+        <v>-82.25805438142325</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.06941034141498056</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07508995064437252</v>
+        <v>0.04511995948529002</v>
       </c>
       <c r="H37" t="n">
-        <v>8.182655658521432</v>
+        <v>-34.9953356150011</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.2402862095039686</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2529553702857275</v>
+        <v>-0.2339100930679532</v>
       </c>
       <c r="H38" t="n">
-        <v>5.272529292426861</v>
+        <v>2.653550717362358</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2687051904527817</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2640020083213567</v>
+        <v>-0.2963681737042226</v>
       </c>
       <c r="H39" t="n">
-        <v>-1.750313093505903</v>
+        <v>-10.29491957517731</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1249543385180605</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1420086288277182</v>
+        <v>0.1389067804655817</v>
       </c>
       <c r="H40" t="n">
-        <v>13.64841790362704</v>
+        <v>11.16603241871794</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1477318918246991</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1467774028805621</v>
+        <v>0.1447617389138962</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.6460953910138816</v>
+        <v>-2.010502183460366</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1193177533271809</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1145580388344584</v>
+        <v>0.1276755806958357</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.989108376580725</v>
+        <v>7.004680473438703</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1398828396058171</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1507192244605079</v>
+        <v>0.1435214421469671</v>
       </c>
       <c r="H43" t="n">
-        <v>7.746757847658219</v>
+        <v>2.601178637353521</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.09280672947451118</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.09832096810564214</v>
+        <v>-0.08717256477763188</v>
       </c>
       <c r="H44" t="n">
-        <v>5.941636627379925</v>
+        <v>6.070857931079978</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.135684768442413</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.09106041623491438</v>
+        <v>-0.1097770589201425</v>
       </c>
       <c r="H45" t="n">
-        <v>-32.8882546801397</v>
+        <v>19.09404409918434</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.1196509483542268</v>
       </c>
       <c r="G46" t="n">
-        <v>0.09286205761273023</v>
+        <v>0.09090413089322662</v>
       </c>
       <c r="H46" t="n">
-        <v>-22.38920051196587</v>
+        <v>-24.02556591185152</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.1078194324209143</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1185118170262722</v>
+        <v>0.1201430712161097</v>
       </c>
       <c r="H47" t="n">
-        <v>9.916936460596546</v>
+        <v>11.42988654131046</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.009271221113961911</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03815509101605796</v>
+        <v>0.0110224918340538</v>
       </c>
       <c r="H48" t="n">
-        <v>311.5433182647176</v>
+        <v>18.8893210351178</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.0584439169143932</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0536579483031763</v>
+        <v>0.02844353663308415</v>
       </c>
       <c r="H49" t="n">
-        <v>-8.188993592313864</v>
+        <v>-51.33191248158925</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.03450030728229148</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0307862540438376</v>
+        <v>0.01776271212165939</v>
       </c>
       <c r="H50" t="n">
-        <v>-10.76527582222508</v>
+        <v>-48.51433647729642</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.03930788418595026</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01121783720922438</v>
+        <v>0.02178657801653843</v>
       </c>
       <c r="H51" t="n">
-        <v>-71.46161020482005</v>
+        <v>-44.57453391926507</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.006158526438982439</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.01112792396941391</v>
+        <v>-0.001982302998466288</v>
       </c>
       <c r="H52" t="n">
-        <v>80.69134036635806</v>
+        <v>67.81205669722155</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.004774662854830472</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.008219103100231205</v>
+        <v>-0.003130448240584356</v>
       </c>
       <c r="H53" t="n">
-        <v>72.13996778675236</v>
+        <v>34.43624532740951</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.04415694658471229</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05461572913246439</v>
+        <v>0.05825127433630273</v>
       </c>
       <c r="H54" t="n">
-        <v>23.68547500830383</v>
+        <v>31.91871005969892</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.07926870284689123</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09283946742120848</v>
+        <v>0.06374138487699318</v>
       </c>
       <c r="H55" t="n">
-        <v>17.11995287790869</v>
+        <v>-19.58820746680983</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1000726041358321</v>
       </c>
       <c r="G56" t="n">
-        <v>0.09074006432639221</v>
+        <v>0.0920137787287974</v>
       </c>
       <c r="H56" t="n">
-        <v>-9.325768915509085</v>
+        <v>-8.052978611505075</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1103832506947538</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1169956405975831</v>
+        <v>0.1000989698248052</v>
       </c>
       <c r="H57" t="n">
-        <v>5.990392438355302</v>
+        <v>-9.316885311149271</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.000606915721200788</v>
       </c>
       <c r="G58" t="n">
-        <v>0.008569250896552097</v>
+        <v>0.02839793433787178</v>
       </c>
       <c r="H58" t="n">
-        <v>1311.934243456037</v>
+        <v>4579.057296734087</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.006268794825673501</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01524341909025236</v>
+        <v>0.009778598870307522</v>
       </c>
       <c r="H59" t="n">
-        <v>143.1634710363112</v>
+        <v>55.98849766560892</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.008575708995245046</v>
       </c>
       <c r="G60" t="n">
-        <v>0.006819029418545139</v>
+        <v>0.01580906012282374</v>
       </c>
       <c r="H60" t="n">
-        <v>-20.48436552212684</v>
+        <v>84.34697506164626</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>-0.01417195439250775</v>
       </c>
       <c r="G61" t="n">
-        <v>0.007354081934208203</v>
+        <v>0.01469977351654536</v>
       </c>
       <c r="H61" t="n">
-        <v>-151.8917979167084</v>
+        <v>203.724391918144</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.04820781920073289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.05466403722188416</v>
+        <v>-0.03188217732886384</v>
       </c>
       <c r="H62" t="n">
-        <v>13.39247061616329</v>
+        <v>33.86513255015871</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.08060956652253479</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.0534979026332448</v>
+        <v>-0.03950015529238343</v>
       </c>
       <c r="H63" t="n">
-        <v>-33.63330812814978</v>
+        <v>50.99817925290421</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.06174173460430174</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0598712864889414</v>
+        <v>0.06581695801056341</v>
       </c>
       <c r="H64" t="n">
-        <v>-3.029471276354492</v>
+        <v>6.600435560127156</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.06662959811614069</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07942170854089708</v>
+        <v>0.07614994638228778</v>
       </c>
       <c r="H65" t="n">
-        <v>19.19884073510203</v>
+        <v>14.28846719074061</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.2131318946009768</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1743612305885948</v>
+        <v>0.1897682806113192</v>
       </c>
       <c r="H66" t="n">
-        <v>-18.19092542904854</v>
+        <v>-10.96204490341472</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.2216592203847949</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2274766065033184</v>
+        <v>0.2135200236019193</v>
       </c>
       <c r="H67" t="n">
-        <v>2.624472877069885</v>
+        <v>-3.671941446309415</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.08613029805961427</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.08107997176401509</v>
+        <v>-0.09911049483439613</v>
       </c>
       <c r="H68" t="n">
-        <v>-5.863588550574436</v>
+        <v>-15.07041896661932</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.07682832271405972</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07677583759760215</v>
+        <v>-0.07816529147606716</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.06831480189006631</v>
+        <v>-1.740202980850406</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.1388418424610572</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1535939276304989</v>
+        <v>-0.1388763121013257</v>
       </c>
       <c r="H70" t="n">
-        <v>10.62510040773868</v>
+        <v>-0.02482655059706116</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.1464666816500254</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1339998905037264</v>
+        <v>-0.1102836702520202</v>
       </c>
       <c r="H71" t="n">
-        <v>-8.511690854093192</v>
+        <v>24.70391968356507</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.1654037325064491</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1375771038829702</v>
+        <v>0.1478585807312238</v>
       </c>
       <c r="H72" t="n">
-        <v>-16.82345869818502</v>
+        <v>-10.6074702845906</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.1440606197197999</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1441649707336612</v>
+        <v>0.1288088595302234</v>
       </c>
       <c r="H73" t="n">
-        <v>0.07243548866044575</v>
+        <v>-10.58704330110575</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>-0.02644312168572005</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.03490606579048421</v>
+        <v>-0.0459556878165196</v>
       </c>
       <c r="H74" t="n">
-        <v>32.00433067376597</v>
+        <v>-73.79070581268331</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>-0.03673443805039947</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.02995746211811437</v>
+        <v>-0.01981406581623907</v>
       </c>
       <c r="H75" t="n">
-        <v>-18.44856296151073</v>
+        <v>46.06133408368935</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.0241116249856462</v>
       </c>
       <c r="G76" t="n">
-        <v>0.008570208805499441</v>
+        <v>-0.008646243107875753</v>
       </c>
       <c r="H76" t="n">
-        <v>-64.45611272321405</v>
+        <v>-135.8592301971473</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.009540996018607206</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02148089562908427</v>
+        <v>0.01011360716662139</v>
       </c>
       <c r="H77" t="n">
-        <v>-325.143114903218</v>
+        <v>206.0015866990979</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.07581151683776853</v>
       </c>
       <c r="G78" t="n">
-        <v>0.06141383298024164</v>
+        <v>0.07689198072423581</v>
       </c>
       <c r="H78" t="n">
-        <v>-18.99142037790505</v>
+        <v>1.425197557752864</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.08006386841778766</v>
       </c>
       <c r="G79" t="n">
-        <v>0.07230056597851485</v>
+        <v>0.0822951645530955</v>
       </c>
       <c r="H79" t="n">
-        <v>-9.696386887981111</v>
+        <v>2.786895236768398</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.06522632324778001</v>
       </c>
       <c r="G80" t="n">
-        <v>0.07377294599897789</v>
+        <v>0.07995555734474635</v>
       </c>
       <c r="H80" t="n">
-        <v>13.10302700756442</v>
+        <v>22.58173290101502</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03716494275777807</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0555381912117843</v>
+        <v>0.06074565533118485</v>
       </c>
       <c r="H81" t="n">
-        <v>49.43704225176288</v>
+        <v>63.44880638480653</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.05802917472569856</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04123554425494921</v>
+        <v>0.05580878545150644</v>
       </c>
       <c r="H82" t="n">
-        <v>-28.93997812330113</v>
+        <v>-3.826332676085439</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.06401056695318895</v>
       </c>
       <c r="G83" t="n">
-        <v>0.07292193739502856</v>
+        <v>0.05781893700208827</v>
       </c>
       <c r="H83" t="n">
-        <v>13.92171771944546</v>
+        <v>-9.672824731623814</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>-0.008333093508537951</v>
       </c>
       <c r="G84" t="n">
-        <v>0.004939321588549361</v>
+        <v>0.007569942810365365</v>
       </c>
       <c r="H84" t="n">
-        <v>-159.273564895061</v>
+        <v>190.8419280620015</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>-0.003871410762059371</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.005207859530134376</v>
+        <v>-0.008320815659461158</v>
       </c>
       <c r="H85" t="n">
-        <v>34.52097569114805</v>
+        <v>-114.9298064934591</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.0252871550052199</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02606271330785267</v>
+        <v>0.008858698203595279</v>
       </c>
       <c r="H86" t="n">
-        <v>3.067004977320215</v>
+        <v>-64.9675963873096</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.0296023691677582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.005493922224181167</v>
+        <v>0.03470367424248983</v>
       </c>
       <c r="H87" t="n">
-        <v>-81.44093740252067</v>
+        <v>17.23275946537341</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>-0.01917066728033536</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01603222660286168</v>
+        <v>-0.01838729020588352</v>
       </c>
       <c r="H88" t="n">
-        <v>-16.37105600749218</v>
+        <v>4.086331805755164</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>-0.01607360886127331</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.01018353150332189</v>
+        <v>-0.02558052424326749</v>
       </c>
       <c r="H89" t="n">
-        <v>-36.64439895724091</v>
+        <v>-59.14611624586382</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02718932048265135</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.03548084735429596</v>
+        <v>-0.04038431150082608</v>
       </c>
       <c r="H90" t="n">
-        <v>30.49552811345605</v>
+        <v>-48.53005071088128</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>0.002587924173862998</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0232255286875679</v>
+        <v>-0.02410981145727215</v>
       </c>
       <c r="H91" t="n">
-        <v>-997.4578514369347</v>
+        <v>-1031.627429457618</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>-0.02218162813191362</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.008807814792521823</v>
+        <v>0.0071752832955858</v>
       </c>
       <c r="H92" t="n">
-        <v>-60.29229802184963</v>
+        <v>132.3478657784476</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>-0.0479899785492678</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03026886107975007</v>
+        <v>0.002052785507883577</v>
       </c>
       <c r="H93" t="n">
-        <v>-36.92670429374073</v>
+        <v>104.2775295383309</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.01443538508154987</v>
       </c>
       <c r="G94" t="n">
-        <v>0.005663004811092873</v>
+        <v>-0.00676354586530727</v>
       </c>
       <c r="H94" t="n">
-        <v>-60.769977530209</v>
+        <v>-146.8539344610341</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.02757106880091253</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01711568727745871</v>
+        <v>0.01366702335142337</v>
       </c>
       <c r="H95" t="n">
-        <v>-37.92156770907545</v>
+        <v>-50.42983842914705</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1174615858869304</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1330733098844265</v>
+        <v>-0.1450254091727326</v>
       </c>
       <c r="H96" t="n">
-        <v>13.29091879665587</v>
+        <v>-23.46624479626504</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1623101903917984</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1327527748414598</v>
+        <v>-0.1441817800843209</v>
       </c>
       <c r="H97" t="n">
-        <v>-18.21044968217358</v>
+        <v>11.16899084630335</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1129671520447325</v>
       </c>
       <c r="G98" t="n">
-        <v>0.09486070606418207</v>
+        <v>0.09798063052807628</v>
       </c>
       <c r="H98" t="n">
-        <v>-16.02806271807284</v>
+        <v>-13.26626479060204</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1050362907047985</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1023700850880355</v>
+        <v>0.1256761005972149</v>
       </c>
       <c r="H99" t="n">
-        <v>-2.538366119816913</v>
+        <v>19.65017019729305</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02592655471171142</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.0100850608913922</v>
+        <v>0.007157028486187801</v>
       </c>
       <c r="H100" t="n">
-        <v>-138.8985771674345</v>
+        <v>-72.3949882050666</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.01324529942437244</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02939682294853629</v>
+        <v>0.02948385404272654</v>
       </c>
       <c r="H101" t="n">
-        <v>121.941550784754</v>
+        <v>122.5986223344549</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>0.0008523699446128174</v>
       </c>
       <c r="G102" t="n">
-        <v>0.001757921057322289</v>
+        <v>-0.0203499446834687</v>
       </c>
       <c r="H102" t="n">
-        <v>106.2392120267464</v>
+        <v>-2487.454509873939</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>0.01859691948750035</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01220633888561632</v>
+        <v>0.02001576983835686</v>
       </c>
       <c r="H103" t="n">
-        <v>-34.36365149711685</v>
+        <v>7.62949128112411</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04685964934835764</v>
       </c>
       <c r="G104" t="n">
-        <v>0.05868351963184736</v>
+        <v>0.06778241897821863</v>
       </c>
       <c r="H104" t="n">
-        <v>25.23251976469204</v>
+        <v>44.6498638398247</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.04445404615924812</v>
       </c>
       <c r="G105" t="n">
-        <v>0.05166329550791692</v>
+        <v>0.05514177295934929</v>
       </c>
       <c r="H105" t="n">
-        <v>16.21730747037749</v>
+        <v>24.04219125929378</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3176161960821992</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.283025019628614</v>
+        <v>-0.3093179746691352</v>
       </c>
       <c r="H106" t="n">
-        <v>-10.89087297192899</v>
+        <v>2.612656884448184</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3058580179222677</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3048017353182573</v>
+        <v>-0.3170820445458784</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.3453506339921454</v>
+        <v>-3.669685267647045</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.219976300390154</v>
       </c>
       <c r="G108" t="n">
-        <v>0.236510028804735</v>
+        <v>0.2437758598835471</v>
       </c>
       <c r="H108" t="n">
-        <v>7.516140777554892</v>
+        <v>10.81914708592779</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.249283133410306</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2504698290510317</v>
+        <v>0.2607069235579382</v>
       </c>
       <c r="H109" t="n">
-        <v>0.4760432944223611</v>
+        <v>4.58265667289622</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.003822301047072578</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02732584500592539</v>
+        <v>0.01842190191731506</v>
       </c>
       <c r="H110" t="n">
-        <v>614.9056201853513</v>
+        <v>381.9584247929403</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.02162869347624484</v>
       </c>
       <c r="G111" t="n">
-        <v>0.04425201039195739</v>
+        <v>0.02705364941291449</v>
       </c>
       <c r="H111" t="n">
-        <v>104.5986293187803</v>
+        <v>25.08221748404716</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.04266279540653856</v>
       </c>
       <c r="G112" t="n">
-        <v>0.05383449580774746</v>
+        <v>0.0434659905936623</v>
       </c>
       <c r="H112" t="n">
-        <v>26.18604874517132</v>
+        <v>1.882659538527663</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,10 +4166,10 @@
         <v>0.03369441758879654</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03692501859963529</v>
+        <v>0.07812560523129042</v>
       </c>
       <c r="H113" t="n">
-        <v>9.587941392146023</v>
+        <v>131.8651302560794</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 30/DAX30_returns_compared_trimester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 30/DAX30_returns_compared_trimester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.04690428506837689</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06370964304014348</v>
+        <v>0.05773186504347146</v>
       </c>
       <c r="H2" t="n">
-        <v>35.82904621031491</v>
+        <v>23.08441533499587</v>
       </c>
       <c r="I2" t="n">
-        <v>23.17688163100411</v>
+        <v>45.9796463383961</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.07240634976255141</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05297817432827322</v>
+        <v>0.06519451601219749</v>
       </c>
       <c r="H3" t="n">
-        <v>-26.83214317251282</v>
+        <v>-9.960222789857973</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05677872930236846</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09149485677521683</v>
+        <v>0.05669276433793832</v>
       </c>
       <c r="H4" t="n">
-        <v>61.14283975601447</v>
+        <v>-0.151403466555825</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.01431410888443309</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0102881073652037</v>
+        <v>0.01654601919767929</v>
       </c>
       <c r="H5" t="n">
-        <v>-171.8738934310626</v>
+        <v>15.59238043573536</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.02406522563137596</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.009995769369221577</v>
+        <v>-0.01122339402413414</v>
       </c>
       <c r="H6" t="n">
-        <v>58.46384520829421</v>
+        <v>53.36260629320172</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.03313782199633989</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.176973569878673e-05</v>
+        <v>0.02343022725263955</v>
       </c>
       <c r="H7" t="n">
-        <v>99.84377447707787</v>
+        <v>170.7053929350802</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.03132415382667915</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02641201464970367</v>
+        <v>0.04294033602962675</v>
       </c>
       <c r="H8" t="n">
-        <v>-15.68163406473809</v>
+        <v>37.08378610072449</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.01634254468973803</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06316367060243028</v>
+        <v>0.07437694057415888</v>
       </c>
       <c r="H9" t="n">
-        <v>286.4983807698725</v>
+        <v>355.112358486389</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1585987240758367</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1559437117293582</v>
+        <v>-0.1293648157742394</v>
       </c>
       <c r="H10" t="n">
-        <v>1.674043950825832</v>
+        <v>18.43262515000979</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1624399880904878</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1576503649401009</v>
+        <v>-0.1281944493143008</v>
       </c>
       <c r="H11" t="n">
-        <v>2.948549311465606</v>
+        <v>21.08196336305467</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.06057036026101323</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08279986121641078</v>
+        <v>-0.08262117428975216</v>
       </c>
       <c r="H12" t="n">
-        <v>-36.7002950941763</v>
+        <v>-36.40528788951612</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.09595844735096801</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05946232698215295</v>
+        <v>-0.04919251519910132</v>
       </c>
       <c r="H13" t="n">
-        <v>38.03325436824806</v>
+        <v>48.73560738307937</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0880758363513635</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.06380794656107378</v>
+        <v>-0.05558989734964724</v>
       </c>
       <c r="H14" t="n">
-        <v>27.5534026080401</v>
+        <v>36.88405395563791</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.09854107075769501</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08105774521388813</v>
+        <v>-0.06656540350299155</v>
       </c>
       <c r="H15" t="n">
-        <v>17.74217126866527</v>
+        <v>32.44907631796411</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.3086795035919008</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2679695447514935</v>
+        <v>-0.3178706132014292</v>
       </c>
       <c r="H16" t="n">
-        <v>13.18842306233236</v>
+        <v>-2.977557467398221</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.3125468234095096</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2895164919408114</v>
+        <v>-0.3059807135796043</v>
       </c>
       <c r="H17" t="n">
-        <v>7.36860199616333</v>
+        <v>2.100840366341575</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1425913561743559</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1412092880698574</v>
+        <v>-0.1706156638742219</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9692509711518089</v>
+        <v>-19.65358101061808</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1550685811404286</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2285810002872402</v>
+        <v>-0.236283611686536</v>
       </c>
       <c r="H19" t="n">
-        <v>-47.40639180817647</v>
+        <v>-52.37362072240789</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1418115268149177</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1571574191453605</v>
+        <v>0.1098274145910543</v>
       </c>
       <c r="H20" t="n">
-        <v>10.82132932005672</v>
+        <v>-22.55395801894636</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1848395652975698</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2949144147236669</v>
+        <v>0.2493150483834591</v>
       </c>
       <c r="H21" t="n">
-        <v>59.55156259369559</v>
+        <v>34.88186253959827</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1839959105938305</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1525991063715137</v>
+        <v>0.1232732349815266</v>
       </c>
       <c r="H22" t="n">
-        <v>-17.06385980046317</v>
+        <v>-33.00218761184792</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.167097082751942</v>
       </c>
       <c r="G23" t="n">
-        <v>0.192899511290034</v>
+        <v>0.1793664927210715</v>
       </c>
       <c r="H23" t="n">
-        <v>15.44157929818325</v>
+        <v>7.342683526883365</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.06416166522379767</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05721325778465872</v>
+        <v>0.09783863174711264</v>
       </c>
       <c r="H24" t="n">
-        <v>-10.82953102121447</v>
+        <v>52.48767532115755</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.03288457073106435</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03087743300851632</v>
+        <v>0.05820151309183869</v>
       </c>
       <c r="H25" t="n">
-        <v>-6.103584988117214</v>
+        <v>76.98729768383062</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.05401082814340269</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04084860190328831</v>
+        <v>0.04127495018269432</v>
       </c>
       <c r="H26" t="n">
-        <v>-24.36960641515754</v>
+        <v>-23.58023085092064</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.06433468169381938</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08159492790533784</v>
+        <v>0.05582293233711948</v>
       </c>
       <c r="H27" t="n">
-        <v>26.82883595144398</v>
+        <v>-13.23042118589922</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.05928198100296411</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.07802197258784284</v>
+        <v>-0.0736673446838981</v>
       </c>
       <c r="H28" t="n">
-        <v>-31.61161497612862</v>
+        <v>-24.26599691433172</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.05281150307367723</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.04261070276647713</v>
+        <v>-0.0512690806948304</v>
       </c>
       <c r="H29" t="n">
-        <v>19.31548945495639</v>
+        <v>2.920618215874282</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.07699420258580157</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03772928348196142</v>
+        <v>0.04548277608955712</v>
       </c>
       <c r="H30" t="n">
-        <v>-50.9972410716037</v>
+        <v>-40.92701195408632</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06115431279408023</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0713139198990457</v>
+        <v>0.06848501511299836</v>
       </c>
       <c r="H31" t="n">
-        <v>16.61306724053145</v>
+        <v>11.98722049841716</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.07344886362917534</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08320266802617203</v>
+        <v>0.08520629343295788</v>
       </c>
       <c r="H32" t="n">
-        <v>13.27972131228765</v>
+        <v>16.00764017690296</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1261993152982801</v>
       </c>
       <c r="G33" t="n">
-        <v>0.100253014537074</v>
+        <v>0.1064709403340919</v>
       </c>
       <c r="H33" t="n">
-        <v>-20.55977934577567</v>
+        <v>-15.63271157023233</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02737189623751556</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0523885207206753</v>
+        <v>0.03223745926773284</v>
       </c>
       <c r="H34" t="n">
-        <v>91.39529196692001</v>
+        <v>17.77576163520817</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.02703077430986488</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03583376389433895</v>
+        <v>0.04041509464570596</v>
       </c>
       <c r="H35" t="n">
-        <v>32.56654612835644</v>
+        <v>49.51511999771487</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.03421515439615114</v>
       </c>
       <c r="G36" t="n">
-        <v>0.006070434086277208</v>
+        <v>0.007785799174251574</v>
       </c>
       <c r="H36" t="n">
-        <v>-82.25805438142325</v>
+        <v>-77.24458851155323</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.06941034141498056</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04511995948529002</v>
+        <v>0.0592403694422987</v>
       </c>
       <c r="H37" t="n">
-        <v>-34.9953356150011</v>
+        <v>-14.65195497581419</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.2402862095039686</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2339100930679532</v>
+        <v>-0.252809283057494</v>
       </c>
       <c r="H38" t="n">
-        <v>2.653550717362358</v>
+        <v>-5.211732117035448</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2687051904527817</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2963681737042226</v>
+        <v>-0.2640908119441186</v>
       </c>
       <c r="H39" t="n">
-        <v>-10.29491957517731</v>
+        <v>1.717264374717745</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1249543385180605</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1389067804655817</v>
+        <v>0.1176094441062914</v>
       </c>
       <c r="H40" t="n">
-        <v>11.16603241871794</v>
+        <v>-5.878062737859628</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1477318918246991</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1447617389138962</v>
+        <v>0.1381758861626374</v>
       </c>
       <c r="H41" t="n">
-        <v>-2.010502183460366</v>
+        <v>-6.4684785011763</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1193177533271809</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1276755806958357</v>
+        <v>0.1125866554259389</v>
       </c>
       <c r="H42" t="n">
-        <v>7.004680473438703</v>
+        <v>-5.641321357086465</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1398828396058171</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1435214421469671</v>
+        <v>0.1441290412069535</v>
       </c>
       <c r="H43" t="n">
-        <v>2.601178637353521</v>
+        <v>3.03554146677461</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.09280672947451118</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.08717256477763188</v>
+        <v>-0.1028591233397143</v>
       </c>
       <c r="H44" t="n">
-        <v>6.070857931079978</v>
+        <v>-10.83153551700574</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.135684768442413</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.1097770589201425</v>
+        <v>-0.1174853628032175</v>
       </c>
       <c r="H45" t="n">
-        <v>19.09404409918434</v>
+        <v>13.41300563660515</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.1196509483542268</v>
       </c>
       <c r="G46" t="n">
-        <v>0.09090413089322662</v>
+        <v>0.09476727267488681</v>
       </c>
       <c r="H46" t="n">
-        <v>-24.02556591185152</v>
+        <v>-20.79688963740749</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.1078194324209143</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1201430712161097</v>
+        <v>0.1078235085466209</v>
       </c>
       <c r="H47" t="n">
-        <v>11.42988654131046</v>
+        <v>0.003780511189013523</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.009271221113961911</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0110224918340538</v>
+        <v>0.02196339733822731</v>
       </c>
       <c r="H48" t="n">
-        <v>18.8893210351178</v>
+        <v>136.8986465564038</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.0584439169143932</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02844353663308415</v>
+        <v>0.04488132583400724</v>
       </c>
       <c r="H49" t="n">
-        <v>-51.33191248158925</v>
+        <v>-23.20616378305379</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.03450030728229148</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01776271212165939</v>
+        <v>0.05963303321984994</v>
       </c>
       <c r="H50" t="n">
-        <v>-48.51433647729642</v>
+        <v>72.8478321422335</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.03930788418595026</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02178657801653843</v>
+        <v>0.04814146231320134</v>
       </c>
       <c r="H51" t="n">
-        <v>-44.57453391926507</v>
+        <v>22.4727896456163</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.006158526438982439</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.001982302998466288</v>
+        <v>-0.01571283281354787</v>
       </c>
       <c r="H52" t="n">
-        <v>67.81205669722155</v>
+        <v>-155.1394878178695</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.004774662854830472</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.003130448240584356</v>
+        <v>-0.006895013966384173</v>
       </c>
       <c r="H53" t="n">
-        <v>34.43624532740951</v>
+        <v>-44.40839439393226</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.04415694658471229</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05825127433630273</v>
+        <v>0.07170049609103667</v>
       </c>
       <c r="H54" t="n">
-        <v>31.91871005969892</v>
+        <v>62.37648124850262</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.07926870284689123</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06374138487699318</v>
+        <v>0.09073654195561107</v>
       </c>
       <c r="H55" t="n">
-        <v>-19.58820746680983</v>
+        <v>14.46704524845089</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1000726041358321</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0920137787287974</v>
+        <v>0.09176077037646277</v>
       </c>
       <c r="H56" t="n">
-        <v>-8.052978611505075</v>
+        <v>-8.305803402584976</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1103832506947538</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1000989698248052</v>
+        <v>0.08519398227716159</v>
       </c>
       <c r="H57" t="n">
-        <v>-9.316885311149271</v>
+        <v>-22.81982842419533</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.000606915721200788</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02839793433787178</v>
+        <v>0.015204480753524</v>
       </c>
       <c r="H58" t="n">
-        <v>4579.057296734087</v>
+        <v>2405.204630956305</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.006268794825673501</v>
       </c>
       <c r="G59" t="n">
-        <v>0.009778598870307522</v>
+        <v>0.02223880863235121</v>
       </c>
       <c r="H59" t="n">
-        <v>55.98849766560892</v>
+        <v>254.7541313885949</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.008575708995245046</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01580906012282374</v>
+        <v>0.01627999211152216</v>
       </c>
       <c r="H60" t="n">
-        <v>84.34697506164626</v>
+        <v>89.83843925381436</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>-0.01417195439250775</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01469977351654536</v>
+        <v>0.01830658884936439</v>
       </c>
       <c r="H61" t="n">
-        <v>203.724391918144</v>
+        <v>229.1747654723083</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.04820781920073289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.03188217732886384</v>
+        <v>-0.0352612833330652</v>
       </c>
       <c r="H62" t="n">
-        <v>33.86513255015871</v>
+        <v>26.85567628305175</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.08060956652253479</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.03950015529238343</v>
+        <v>-0.03377848165805736</v>
       </c>
       <c r="H63" t="n">
-        <v>50.99817925290421</v>
+        <v>58.09618744368955</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.06174173460430174</v>
       </c>
       <c r="G64" t="n">
-        <v>0.06581695801056341</v>
+        <v>0.0731091904622555</v>
       </c>
       <c r="H64" t="n">
-        <v>6.600435560127156</v>
+        <v>18.41129979714201</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.06662959811614069</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07614994638228778</v>
+        <v>0.0740205729584027</v>
       </c>
       <c r="H65" t="n">
-        <v>14.28846719074061</v>
+        <v>11.09263007917134</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.2131318946009768</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1897682806113192</v>
+        <v>0.1720863940800825</v>
       </c>
       <c r="H66" t="n">
-        <v>-10.96204490341472</v>
+        <v>-19.25826286944957</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.2216592203847949</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2135200236019193</v>
+        <v>0.2078739875617702</v>
       </c>
       <c r="H67" t="n">
-        <v>-3.671941446309415</v>
+        <v>-6.219110939348198</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.08613029805961427</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.09911049483439613</v>
+        <v>-0.0924930321138227</v>
       </c>
       <c r="H68" t="n">
-        <v>-15.07041896661932</v>
+        <v>-7.387335464466329</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.07682832271405972</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07816529147606716</v>
+        <v>-0.08825457025421884</v>
       </c>
       <c r="H69" t="n">
-        <v>-1.740202980850406</v>
+        <v>-14.87244174610635</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.1388418424610572</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1388763121013257</v>
+        <v>-0.1956189259378058</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.02482655059706116</v>
+        <v>-40.89335208344963</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.1464666816500254</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1102836702520202</v>
+        <v>-0.1327029816578505</v>
       </c>
       <c r="H71" t="n">
-        <v>24.70391968356507</v>
+        <v>9.397154244992432</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.1654037325064491</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1478585807312238</v>
+        <v>0.1369478998804504</v>
       </c>
       <c r="H72" t="n">
-        <v>-10.6074702845906</v>
+        <v>-17.20386365820929</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.1440606197197999</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1288088595302234</v>
+        <v>0.1500895480149882</v>
       </c>
       <c r="H73" t="n">
-        <v>-10.58704330110575</v>
+        <v>4.184994002465535</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>-0.02644312168572005</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.0459556878165196</v>
+        <v>-0.03940408579136626</v>
       </c>
       <c r="H74" t="n">
-        <v>-73.79070581268331</v>
+        <v>-49.01450085844236</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>-0.03673443805039947</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.01981406581623907</v>
+        <v>-0.03431791554682102</v>
       </c>
       <c r="H75" t="n">
-        <v>46.06133408368935</v>
+        <v>6.57835707262757</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.0241116249856462</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.008646243107875753</v>
+        <v>0.01577588056458665</v>
       </c>
       <c r="H76" t="n">
-        <v>-135.8592301971473</v>
+        <v>-34.57147507072572</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.009540996018607206</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01011360716662139</v>
+        <v>0.01545430688925774</v>
       </c>
       <c r="H77" t="n">
-        <v>206.0015866990979</v>
+        <v>261.9779199060368</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.07581151683776853</v>
       </c>
       <c r="G78" t="n">
-        <v>0.07689198072423581</v>
+        <v>0.06570571936028437</v>
       </c>
       <c r="H78" t="n">
-        <v>1.425197557752864</v>
+        <v>-13.33016129872441</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.08006386841778766</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0822951645530955</v>
+        <v>0.0612250398955732</v>
       </c>
       <c r="H79" t="n">
-        <v>2.786895236768398</v>
+        <v>-23.52975055353317</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.06522632324778001</v>
       </c>
       <c r="G80" t="n">
-        <v>0.07995555734474635</v>
+        <v>0.07727765601359324</v>
       </c>
       <c r="H80" t="n">
-        <v>22.58173290101502</v>
+        <v>18.47617980862259</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03716494275777807</v>
       </c>
       <c r="G81" t="n">
-        <v>0.06074565533118485</v>
+        <v>0.04162786608651386</v>
       </c>
       <c r="H81" t="n">
-        <v>63.44880638480653</v>
+        <v>12.00842244752756</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.05802917472569856</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05580878545150644</v>
+        <v>0.05846140807827593</v>
       </c>
       <c r="H82" t="n">
-        <v>-3.826332676085439</v>
+        <v>0.7448552467280741</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.06401056695318895</v>
       </c>
       <c r="G83" t="n">
-        <v>0.05781893700208827</v>
+        <v>0.06063532737761205</v>
       </c>
       <c r="H83" t="n">
-        <v>-9.672824731623814</v>
+        <v>-5.27294122866498</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>-0.008333093508537951</v>
       </c>
       <c r="G84" t="n">
-        <v>0.007569942810365365</v>
+        <v>-0.009922175284098805</v>
       </c>
       <c r="H84" t="n">
-        <v>190.8419280620015</v>
+        <v>-19.069530108269</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>-0.003871410762059371</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.008320815659461158</v>
+        <v>-0.004159357877182998</v>
       </c>
       <c r="H85" t="n">
-        <v>-114.9298064934591</v>
+        <v>-7.437782576459425</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.0252871550052199</v>
       </c>
       <c r="G86" t="n">
-        <v>0.008858698203595279</v>
+        <v>0.03152278009587781</v>
       </c>
       <c r="H86" t="n">
-        <v>-64.9675963873096</v>
+        <v>24.65925917474989</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.0296023691677582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03470367424248983</v>
+        <v>0.0197010731257513</v>
       </c>
       <c r="H87" t="n">
-        <v>17.23275946537341</v>
+        <v>-33.44764733489988</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>-0.01917066728033536</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01838729020588352</v>
+        <v>-0.00701230503113226</v>
       </c>
       <c r="H88" t="n">
-        <v>4.086331805755164</v>
+        <v>63.42169561137159</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>-0.01607360886127331</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.02558052424326749</v>
+        <v>-0.01922442688373837</v>
       </c>
       <c r="H89" t="n">
-        <v>-59.14611624586382</v>
+        <v>-19.60243060322584</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02718932048265135</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.04038431150082608</v>
+        <v>-0.03891168774694288</v>
       </c>
       <c r="H90" t="n">
-        <v>-48.53005071088128</v>
+        <v>-43.11386623939796</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>0.002587924173862998</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.02410981145727215</v>
+        <v>-0.02138864790380844</v>
       </c>
       <c r="H91" t="n">
-        <v>-1031.627429457618</v>
+        <v>-926.4789254579117</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>-0.02218162813191362</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0071752832955858</v>
+        <v>-0.02022266612022502</v>
       </c>
       <c r="H92" t="n">
-        <v>132.3478657784476</v>
+        <v>8.831461784674682</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>-0.0479899785492678</v>
       </c>
       <c r="G93" t="n">
-        <v>0.002052785507883577</v>
+        <v>0.001602667435562977</v>
       </c>
       <c r="H93" t="n">
-        <v>104.2775295383309</v>
+        <v>103.3395877306293</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.01443538508154987</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.00676354586530727</v>
+        <v>0.001589947857849053</v>
       </c>
       <c r="H94" t="n">
-        <v>-146.8539344610341</v>
+        <v>-88.9857606924446</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.02757106880091253</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01366702335142337</v>
+        <v>0.02422319558949577</v>
       </c>
       <c r="H95" t="n">
-        <v>-50.42983842914705</v>
+        <v>-12.14270377253549</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1174615858869304</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1450254091727326</v>
+        <v>-0.1377071707685511</v>
       </c>
       <c r="H96" t="n">
-        <v>-23.46624479626504</v>
+        <v>-17.23591992118112</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1623101903917984</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1441817800843209</v>
+        <v>-0.1509769922549365</v>
       </c>
       <c r="H97" t="n">
-        <v>11.16899084630335</v>
+        <v>6.982431669573454</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1129671520447325</v>
       </c>
       <c r="G98" t="n">
-        <v>0.09798063052807628</v>
+        <v>0.09195595048052514</v>
       </c>
       <c r="H98" t="n">
-        <v>-13.26626479060204</v>
+        <v>-18.59939033949212</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1050362907047985</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1256761005972149</v>
+        <v>0.1192222621253791</v>
       </c>
       <c r="H99" t="n">
-        <v>19.65017019729305</v>
+        <v>13.50578102615016</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02592655471171142</v>
       </c>
       <c r="G100" t="n">
-        <v>0.007157028486187801</v>
+        <v>0.01324941057230206</v>
       </c>
       <c r="H100" t="n">
-        <v>-72.3949882050666</v>
+        <v>-48.89637007451245</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.01324529942437244</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02948385404272654</v>
+        <v>0.02429951735287567</v>
       </c>
       <c r="H101" t="n">
-        <v>122.5986223344549</v>
+        <v>83.45766731526325</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>0.0008523699446128174</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0203499446834687</v>
+        <v>0.01754460366067641</v>
       </c>
       <c r="H102" t="n">
-        <v>-2487.454509873939</v>
+        <v>1958.332038988765</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>0.01859691948750035</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02001576983835686</v>
+        <v>-0.01343995138432179</v>
       </c>
       <c r="H103" t="n">
-        <v>7.62949128112411</v>
+        <v>-172.2697723854494</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04685964934835764</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06778241897821863</v>
+        <v>0.06819377931671801</v>
       </c>
       <c r="H104" t="n">
-        <v>44.6498638398247</v>
+        <v>45.52772004280502</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.04445404615924812</v>
       </c>
       <c r="G105" t="n">
-        <v>0.05514177295934929</v>
+        <v>0.06318473681528744</v>
       </c>
       <c r="H105" t="n">
-        <v>24.04219125929378</v>
+        <v>42.13495120093277</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3176161960821992</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.3093179746691352</v>
+        <v>-0.3237806285385926</v>
       </c>
       <c r="H106" t="n">
-        <v>2.612656884448184</v>
+        <v>-1.940843235462088</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3058580179222677</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3170820445458784</v>
+        <v>-0.3135598432896233</v>
       </c>
       <c r="H107" t="n">
-        <v>-3.669685267647045</v>
+        <v>-2.518104779359738</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.219976300390154</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2437758598835471</v>
+        <v>0.2193187631693694</v>
       </c>
       <c r="H108" t="n">
-        <v>10.81914708592779</v>
+        <v>-0.2989127554279159</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.249283133410306</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2607069235579382</v>
+        <v>0.2512662081604868</v>
       </c>
       <c r="H109" t="n">
-        <v>4.58265667289622</v>
+        <v>0.7955110011060198</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.003822301047072578</v>
       </c>
       <c r="G110" t="n">
-        <v>0.01842190191731506</v>
+        <v>0.01095018038681256</v>
       </c>
       <c r="H110" t="n">
-        <v>381.9584247929403</v>
+        <v>186.4813695195222</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.02162869347624484</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02705364941291449</v>
+        <v>0.03248677607151552</v>
       </c>
       <c r="H111" t="n">
-        <v>25.08221748404716</v>
+        <v>50.20221220110357</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.04266279540653856</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0434659905936623</v>
+        <v>0.0534059101017658</v>
       </c>
       <c r="H112" t="n">
-        <v>1.882659538527663</v>
+        <v>25.18145984775468</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,14 +4166,14 @@
         <v>0.03369441758879654</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07812560523129042</v>
+        <v>0.0529736272822369</v>
       </c>
       <c r="H113" t="n">
-        <v>131.8651302560794</v>
+        <v>57.21781551093124</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>